--- a/STOK DEALER/STOK BHG.xlsx
+++ b/STOK DEALER/STOK BHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB7256-039F-44BF-BF54-857707A40C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932516E4-2B06-4A44-BCA4-D61471ABD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="STOK DEALER" sheetId="1" r:id="rId1"/>
@@ -11898,8 +11898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B32B2-47AD-4A50-A408-222CF682F986}">
   <dimension ref="A1:H2040"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2040"/>
+    <sheetView tabSelected="1" topLeftCell="A1624" workbookViewId="0">
+      <selection activeCell="K1656" sqref="K1656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54835,7 +54835,7 @@
         <v>218</v>
       </c>
       <c r="H1651" s="2">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1652" spans="1:8" x14ac:dyDescent="0.25">

--- a/STOK DEALER/STOK BHG.xlsx
+++ b/STOK DEALER/STOK BHG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932516E4-2B06-4A44-BCA4-D61471ABD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EB040-B0B5-4268-8976-EC6533D9659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
   </bookViews>
@@ -11898,8 +11898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B32B2-47AD-4A50-A408-222CF682F986}">
   <dimension ref="A1:H2040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1624" workbookViewId="0">
-      <selection activeCell="K1656" sqref="K1656"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14295,13 +14295,13 @@
         <v>64</v>
       </c>
       <c r="F92" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -14584,10 +14584,10 @@
         <v>414</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14893,13 +14893,13 @@
         <v>64</v>
       </c>
       <c r="F115" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G115" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -15104,10 +15104,10 @@
         <v>107</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -19914,10 +19914,10 @@
         <v>17</v>
       </c>
       <c r="G308" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -22930,10 +22930,10 @@
         <v>5</v>
       </c>
       <c r="G424" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -24828,10 +24828,10 @@
         <v>7</v>
       </c>
       <c r="G497" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H497" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -37071,13 +37071,13 @@
         <v>378</v>
       </c>
       <c r="F968" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G968" s="2">
         <v>0</v>
       </c>
       <c r="H968" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.25">
@@ -46275,13 +46275,13 @@
         <v>2486</v>
       </c>
       <c r="F1322" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1322" s="2">
         <v>17</v>
       </c>
       <c r="H1322" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
@@ -54829,13 +54829,13 @@
         <v>64</v>
       </c>
       <c r="F1651" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G1651" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H1651" s="2">
-        <v>200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1652" spans="1:8" x14ac:dyDescent="0.25">

--- a/STOK DEALER/STOK BHG.xlsx
+++ b/STOK DEALER/STOK BHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EB040-B0B5-4268-8976-EC6533D9659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA13DF1-0987-4B80-9A0B-64BF8198E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="STOK DEALER" sheetId="1" r:id="rId1"/>
@@ -14399,13 +14399,13 @@
         <v>64</v>
       </c>
       <c r="F96" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -14581,10 +14581,10 @@
         <v>64</v>
       </c>
       <c r="F103" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="2">
         <v>413</v>
@@ -14893,13 +14893,13 @@
         <v>64</v>
       </c>
       <c r="F115" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G115" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -14997,13 +14997,13 @@
         <v>64</v>
       </c>
       <c r="F119" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
       </c>
       <c r="H119" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -15101,10 +15101,10 @@
         <v>64</v>
       </c>
       <c r="F123" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G123" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="2">
         <v>106</v>
@@ -19911,10 +19911,10 @@
         <v>64</v>
       </c>
       <c r="F308" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G308" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" s="2">
         <v>16</v>
@@ -22927,10 +22927,10 @@
         <v>813</v>
       </c>
       <c r="F424" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G424" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424" s="2">
         <v>4</v>
@@ -24825,10 +24825,10 @@
         <v>946</v>
       </c>
       <c r="F497" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G497" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H497" s="2">
         <v>6</v>
@@ -54829,13 +54829,13 @@
         <v>64</v>
       </c>
       <c r="F1651" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G1651" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1651" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1652" spans="1:8" x14ac:dyDescent="0.25">

--- a/STOK DEALER/STOK BHG.xlsx
+++ b/STOK DEALER/STOK BHG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Wanda - PSD\HIL\HIL 2025\STOK DEALER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA13DF1-0987-4B80-9A0B-64BF8198E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C4D35-3AB9-4BEC-AD0A-1A17AC9EE227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69DFFCF3-4EBB-4C5E-9380-5C22F317BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="STOK DEALER" sheetId="1" r:id="rId1"/>
@@ -14584,10 +14584,10 @@
         <v>413</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14893,13 +14893,13 @@
         <v>64</v>
       </c>
       <c r="F115" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -15000,10 +15000,10 @@
         <v>905</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -36450,10 +36450,10 @@
         <v>11</v>
       </c>
       <c r="G944" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H944" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.25">
